--- a/reading/同义词表.xlsx
+++ b/reading/同义词表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\reading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7351E8AD-8DAC-405D-9C2B-E7EC5347A75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E60352C-8273-450D-8290-C5CC20CEFA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5604" yWindow="4068" windowWidth="15336" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t> say</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,12 +180,359 @@
     <t>find</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>剑12-6-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不利的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prevalent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流行的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alleviate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减轻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finaancial assistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compensation(补偿金)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stranglehold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>always go to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collaborating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collective action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchaser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口头的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑12-6-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speech sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auditory input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C12-7-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timing right 时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>five years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ambitious reintroduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigger idea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effort was made</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prepared operation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>young</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grown giant（巨大的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>old</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C12-7-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mixture </t>
+  </si>
+  <si>
+    <t>combination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discrepancy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eradicated 被清除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>re-emerge出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期待的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C12-7-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save for the end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anticipate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C12-8-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glaze</t>
+  </si>
+  <si>
+    <t>釉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小珠子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>using</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introducing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-19th</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be placed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>after change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excise act</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeal=revoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消费税法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>=law</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concern for the environment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>green issues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glass bottles and jars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glass containers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓶子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C12-8-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">vanished </t>
+  </si>
+  <si>
+    <t>消亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reveal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>揭露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>presume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设假定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glimpse</t>
+  </si>
+  <si>
+    <t>一瞬间看见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>denude</t>
+  </si>
+  <si>
+    <t>剥夺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resonate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生共鸣</t>
+  </si>
+  <si>
+    <t>arbitrary</t>
+  </si>
+  <si>
+    <t>任意的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extend the habitat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +565,44 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333643"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -239,12 +624,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -525,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -650,8 +1041,336 @@
         <v>27</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38">
+        <v>1850</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C47" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/reading/同义词表.xlsx
+++ b/reading/同义词表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\reading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E60352C-8273-450D-8290-C5CC20CEFA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D102B6-CB46-4E12-B879-1219A418DB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5604" yWindow="4068" windowWidth="15336" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t> say</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -527,12 +527,94 @@
     <t>spread</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>C13-1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rugby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> captain</t>
+  </si>
+  <si>
+    <t>橄榄球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队长/船长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interactive journey</t>
+  </si>
+  <si>
+    <t>interactive tour</t>
+  </si>
+  <si>
+    <t>used in</t>
+  </si>
+  <si>
+    <t>chosen for</t>
+  </si>
+  <si>
+    <t> a map</t>
+  </si>
+  <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>also </t>
+  </si>
+  <si>
+    <t>in the area</t>
+  </si>
+  <si>
+    <t>and</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>ready-made itineraries</t>
+  </si>
+  <si>
+    <t> create itineraries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>once-in-a-lifetime visit</t>
+  </si>
+  <si>
+    <t>unlikely that they will return</t>
+  </si>
+  <si>
+    <t>C13-1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> a new source </t>
+  </si>
+  <si>
+    <t>a new explanation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perhaps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potenial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,6 +685,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF131B33"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -624,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -636,6 +725,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -916,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1352,7 +1445,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>106</v>
       </c>
@@ -1360,12 +1453,106 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>108</v>
       </c>
       <c r="D50" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A60" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/reading/同义词表.xlsx
+++ b/reading/同义词表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\reading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D102B6-CB46-4E12-B879-1219A418DB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FC6331-BD62-4E99-8779-963F5C00C3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="162">
   <si>
     <t> say</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -609,12 +609,107 @@
     <t>potenial</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>C13-1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审美上的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>较差的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aesthetically</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> inferior</t>
+  </si>
+  <si>
+    <t>superior</t>
+  </si>
+  <si>
+    <t>较好的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ultimately </t>
+  </si>
+  <si>
+    <t>最终的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supersede</t>
+  </si>
+  <si>
+    <t>取代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>what it means to be human</t>
+  </si>
+  <si>
+    <t>fundamental human quality.</t>
+  </si>
+  <si>
+    <t>诡异的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>striking</t>
+  </si>
+  <si>
+    <t>惊人的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eerie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unexpected/eerie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vague explanation</t>
+  </si>
+  <si>
+    <t>not reveal the detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rely on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> dependent on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creative impulses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imagination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weren’t told</t>
+  </si>
+  <si>
+    <t>without know</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,6 +787,18 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333643"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF4D5156"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -713,7 +820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -729,6 +836,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1009,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1555,6 +1664,103 @@
         <v>135</v>
       </c>
     </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A63" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D65" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>156</v>
+      </c>
+      <c r="B66" t="s">
+        <v>157</v>
+      </c>
+      <c r="C66" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B68" t="s">
+        <v>161</v>
+      </c>
+      <c r="C68" t="s">
+        <v>152</v>
+      </c>
+      <c r="D68" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>150</v>
+      </c>
+      <c r="D69" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reading/同义词表.xlsx
+++ b/reading/同义词表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\reading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FC6331-BD62-4E99-8779-963F5C00C3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02C46BD-FAD2-44B0-B70C-AAE908829E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="183">
   <si>
     <t> say</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -704,12 +704,86 @@
     <t>without know</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>C13-2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maintained</t>
+  </si>
+  <si>
+    <t>grown in/diminishing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>economic importance</t>
+  </si>
+  <si>
+    <t>economic potential</t>
+  </si>
+  <si>
+    <t>throughout</t>
+  </si>
+  <si>
+    <t>t the very beginning of</t>
+  </si>
+  <si>
+    <t>C13-3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cultivated</t>
+  </si>
+  <si>
+    <t>cultivated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> no growing in the wild.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C13-3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>individual attention</t>
+  </si>
+  <si>
+    <t>one-on-one context</t>
+  </si>
+  <si>
+    <t>babble</t>
+  </si>
+  <si>
+    <t>胡言乱语；嘈杂的人声；含混不清的话</t>
+  </si>
+  <si>
+    <t>womb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>belly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肚子，腹部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -799,6 +873,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0B78FE"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0B78FE"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF001D35"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -820,7 +914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -838,6 +932,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1118,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1761,6 +1858,89 @@
         <v>151</v>
       </c>
     </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A71" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A72" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A73" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A75" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A77" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>179</v>
+      </c>
+      <c r="D78" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79" t="s">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reading/同义词表.xlsx
+++ b/reading/同义词表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\reading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02C46BD-FAD2-44B0-B70C-AAE908829E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F282EBDC-F228-4046-8FF3-4010989CAF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7800" yWindow="6420" windowWidth="13068" windowHeight="8856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="216">
   <si>
     <t> say</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -778,12 +778,139 @@
     <t>肚子，腹部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>C13-4-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stroring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explanation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proposed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suggestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target for near future</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero net land degradation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keeping soil safe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>that’s not easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it is difficult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C13-4-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> capitalism</t>
+  </si>
+  <si>
+    <t>economics</t>
+  </si>
+  <si>
+    <t>资本主义的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discussion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relationship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体</t>
+  </si>
+  <si>
+    <t>psychology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>happiness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> most influential </t>
+  </si>
+  <si>
+    <t>not is widely applied</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广泛使用不算影响力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>associating</t>
+  </si>
+  <si>
+    <t>linking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纠缠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -893,6 +1020,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3377FF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333643"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -914,7 +1054,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -935,6 +1075,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1215,10 +1357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1941,6 +2083,137 @@
         <v>182</v>
       </c>
     </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>185</v>
+      </c>
+      <c r="B81" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>186</v>
+      </c>
+      <c r="B82" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>188</v>
+      </c>
+      <c r="B83" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>190</v>
+      </c>
+      <c r="B84" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>192</v>
+      </c>
+      <c r="B85" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>194</v>
+      </c>
+      <c r="B86" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A88" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C88" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>200</v>
+      </c>
+      <c r="B89" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>202</v>
+      </c>
+      <c r="B90" t="s">
+        <v>203</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>205</v>
+      </c>
+      <c r="B91" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A92" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B92" t="s">
+        <v>208</v>
+      </c>
+      <c r="C92" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A93" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B93" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>212</v>
+      </c>
+      <c r="B94" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A95" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B95" t="s">
+        <v>215</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reading/同义词表.xlsx
+++ b/reading/同义词表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\reading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F282EBDC-F228-4046-8FF3-4010989CAF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CA8332-3B1F-4AED-B396-4C0995ABCB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="6420" windowWidth="13068" windowHeight="8856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1584" windowWidth="12936" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="240">
   <si>
     <t> say</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -905,12 +905,89 @@
     <t>纠缠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>C14-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not a great success</t>
+  </si>
+  <si>
+    <t>struggled to get off the ground</t>
+  </si>
+  <si>
+    <t>take away</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>need additional transport to reach their final destination</t>
+  </si>
+  <si>
+    <t>benefit residents who use public transport.</t>
+  </si>
+  <si>
+    <t>business partner had lost interest</t>
+  </si>
+  <si>
+    <t>failed when a partner</t>
+  </si>
+  <si>
+    <t>change in people’s attitudes</t>
+  </si>
+  <si>
+    <t>become more environmentally conscious</t>
+  </si>
+  <si>
+    <t>conscious</t>
+  </si>
+  <si>
+    <t>意识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>misuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vandalism and theft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破坏和盗窃</t>
+  </si>
+  <si>
+    <t>cost the municipality only 10% of</t>
+  </si>
+  <si>
+    <t>potential savings</t>
+  </si>
+  <si>
+    <t>rejected the plan</t>
+  </si>
+  <si>
+    <t>turned down</t>
+  </si>
+  <si>
+    <t>didn't really benefit </t>
+  </si>
+  <si>
+    <t>unable to profit from</t>
+  </si>
+  <si>
+    <t> an answer to the perceived threats</t>
+  </si>
+  <si>
+    <t>the problems  to solve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1033,6 +1110,19 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FF808080"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1054,7 +1144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1077,6 +1167,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1357,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2214,6 +2306,100 @@
         <v>215</v>
       </c>
     </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A98" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A99" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A100" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A101" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C102" t="s">
+        <v>227</v>
+      </c>
+      <c r="D102" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>229</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C103" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A104" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A105" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A106" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B106" s="21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A107" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="B107" s="18" t="s">
+        <v>238</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reading/同义词表.xlsx
+++ b/reading/同义词表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\reading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CA8332-3B1F-4AED-B396-4C0995ABCB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32F7940-4D04-4E01-9D4C-D1308F634126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1584" windowWidth="12936" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="281">
   <si>
     <t> say</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -982,12 +982,189 @@
     <t>the problems  to solve</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>C14-2 (第三篇需要重做)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gave up portraiture</t>
+  </si>
+  <si>
+    <t>dropped portraiture</t>
+  </si>
+  <si>
+    <t>specialize in landscape photography</t>
+  </si>
+  <si>
+    <t>focus on taking photographs of scenery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retired completely from photography</t>
+  </si>
+  <si>
+    <t>last work as a photographer</t>
+  </si>
+  <si>
+    <r>
+      <t>marketed</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0B78FE"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advertising</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>widespread introduction</t>
+  </si>
+  <si>
+    <t>large increase in the use</t>
+  </si>
+  <si>
+    <t>ought to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rhetoric </t>
+  </si>
+  <si>
+    <t>修辞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obsession </t>
+  </si>
+  <si>
+    <t>痴迷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥抱/接受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>embrace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distinct roles.</t>
+  </si>
+  <si>
+    <t>structure and hierarchy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">devoid of </t>
+  </si>
+  <si>
+    <t>缺乏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rather than actually looking at </t>
+  </si>
+  <si>
+    <t>without really considering</t>
+  </si>
+  <si>
+    <t>countless seminars and workshops</t>
+  </si>
+  <si>
+    <t>numerous training sessions</t>
+  </si>
+  <si>
+    <t>seminars</t>
+  </si>
+  <si>
+    <t>研讨会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a number of principles</t>
+  </si>
+  <si>
+    <t>early recommendations</t>
+  </si>
+  <si>
+    <t>misguided</t>
+  </si>
+  <si>
+    <t>incorrect</t>
+  </si>
+  <si>
+    <t>fundamental beliefs</t>
+  </si>
+  <si>
+    <t>obsession with efficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieve</t>
+  </si>
+  <si>
+    <t>reach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solutions</t>
+  </si>
+  <si>
+    <r>
+      <t>outcomes</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0B78FE"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0B78FE"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impossible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>never</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1122,6 +1299,14 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0B78FE"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1449,10 +1634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2400,6 +2585,159 @@
         <v>238</v>
       </c>
     </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A110" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="D110" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A111" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="D111" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A112" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="D112" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A113" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B113" t="s">
+        <v>248</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D113" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A114" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C114" t="s">
+        <v>261</v>
+      </c>
+      <c r="D114" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>260</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="D115" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A116" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A117" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A118" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A119" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A120" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A121" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A122" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="B122" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>279</v>
+      </c>
+      <c r="B123" t="s">
+        <v>280</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reading/同义词表.xlsx
+++ b/reading/同义词表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\reading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32F7940-4D04-4E01-9D4C-D1308F634126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DF577B-43E5-40C1-9199-CBC91E81661B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8604" yWindow="1848" windowWidth="12924" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="340">
   <si>
     <t> say</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1159,12 +1159,238 @@
     <t>never</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>C14-3 有难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>universal.</t>
+  </si>
+  <si>
+    <t>普遍的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>differ</t>
+  </si>
+  <si>
+    <t>function of culture</t>
+  </si>
+  <si>
+    <t>education are universal</t>
+  </si>
+  <si>
+    <t>one group</t>
+  </si>
+  <si>
+    <t>section of society</t>
+  </si>
+  <si>
+    <t>favoring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preferential treatment</t>
+  </si>
+  <si>
+    <t>at the expense of another</t>
+  </si>
+  <si>
+    <t>over another</t>
+  </si>
+  <si>
+    <t>牺牲他人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preserve</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>it指代prey</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>defensive</t>
+  </si>
+  <si>
+    <t>substances</t>
+  </si>
+  <si>
+    <t>compounds</t>
+  </si>
+  <si>
+    <t>an enormous range of</t>
+  </si>
+  <si>
+    <t>the variety of</t>
+  </si>
+  <si>
+    <t>once again</t>
+  </si>
+  <si>
+    <t>renewed</t>
+  </si>
+  <si>
+    <t>technological advances</t>
+  </si>
+  <si>
+    <t>DNA</t>
+  </si>
+  <si>
+    <t>animals对应monkeys和chimpanzees</t>
+  </si>
+  <si>
+    <t>benefit wildlife</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conservation diverse animals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>most important</t>
+  </si>
+  <si>
+    <t>significant </t>
+  </si>
+  <si>
+    <t>elements of play</t>
+  </si>
+  <si>
+    <t>aspects of play</t>
+  </si>
+  <si>
+    <t>certain elements of play</t>
+  </si>
+  <si>
+    <t>lack of obvious functional purpose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obvious</t>
+  </si>
+  <si>
+    <t>明显的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circumstances</t>
+  </si>
+  <si>
+    <t>情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>different aspects</t>
+  </si>
+  <si>
+    <t>new facets</t>
+  </si>
+  <si>
+    <t>C14-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> aggressively</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修饰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> attacked </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>television documentarie and museums</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>two ways of learning about animals</t>
+  </si>
+  <si>
+    <r>
+      <t>animal in a zoo</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0B78FE"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>captive animal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>live longer</t>
+  </si>
+  <si>
+    <t>have a greater life expectancy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectancy</t>
+  </si>
+  <si>
+    <t>预期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>zoo staff </t>
+  </si>
+  <si>
+    <t>travel to overseas</t>
+  </si>
+  <si>
+    <t>keepers abroad</t>
+  </si>
+  <si>
+    <t>reintroduced</t>
+  </si>
+  <si>
+    <t>later be released into the wild</t>
+  </si>
+  <si>
+    <t>nobody had yet tested</t>
+  </si>
+  <si>
+    <t>have already proved</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1308,6 +1534,31 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF808080"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1329,7 +1580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1354,6 +1605,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1634,10 +1889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2738,6 +2993,239 @@
         <v>280</v>
       </c>
     </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A126" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C126" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A127" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A128" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A129" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A130" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C130" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A131" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A132" s="15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A133" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="B134" s="20" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="B135" s="20" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A136" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A137" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A138" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C138" t="s">
+        <v>318</v>
+      </c>
+      <c r="D138" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A139" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B139" s="18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A140" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B140" s="18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A141" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="B141" s="15" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>315</v>
+      </c>
+      <c r="B142" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="C142" t="s">
+        <v>316</v>
+      </c>
+      <c r="D142" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A143" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="B143" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A146" s="24" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A147" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="B147" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C147" t="s">
+        <v>330</v>
+      </c>
+      <c r="D147" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A148" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B148" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A149" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A150" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="B150" s="19" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A151" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B151" s="21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="B152" s="20" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A153" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="B153" s="19" t="s">
+        <v>339</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reading/同义词表.xlsx
+++ b/reading/同义词表.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\reading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DF577B-43E5-40C1-9199-CBC91E81661B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902CD594-7D76-4BFE-9CE5-E2C0F20BCAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8604" yWindow="1848" windowWidth="12924" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="2316" windowWidth="10800" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="407">
   <si>
     <t> say</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1385,12 +1385,293 @@
   <si>
     <t>have already proved</t>
   </si>
+  <si>
+    <t>C15-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be urged</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not  similar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no other stone possessed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>more popular</t>
+  </si>
+  <si>
+    <t> merits</t>
+  </si>
+  <si>
+    <t>优点，长处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convince the English public of the merits </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convince</t>
+  </si>
+  <si>
+    <t>说服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trap</t>
+  </si>
+  <si>
+    <t>be caught in</t>
+  </si>
+  <si>
+    <t>trap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> take water from different places, such as the sea</t>
+  </si>
+  <si>
+    <t>water from a range of sources</t>
+  </si>
+  <si>
+    <t>C15-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prevent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erosion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0B78FE"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>腐蚀</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a very large area</t>
+  </si>
+  <si>
+    <t>not like that need expanse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get an award from the organisation</t>
+  </si>
+  <si>
+    <t> receive a UNESCO award</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>involvement</t>
+  </si>
+  <si>
+    <t>参与，涉及</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sense of justice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> justice</t>
+  </si>
+  <si>
+    <t>正义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moral standards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>involvement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conclusion is not a moralistic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make a clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potentially benefit</t>
+  </si>
+  <si>
+    <t>C16-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be used by people</t>
+  </si>
+  <si>
+    <t>missed out on a kill</t>
+  </si>
+  <si>
+    <t>disappointed when hunting</t>
+  </si>
+  <si>
+    <t>hit out</t>
+  </si>
+  <si>
+    <t>make movements</t>
+  </si>
+  <si>
+    <t>C16-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outlive us</t>
+  </si>
+  <si>
+    <t>exist for longer than the human race</t>
+  </si>
+  <si>
+    <t>excessive focus on</t>
+  </si>
+  <si>
+    <t>obsession with</t>
+  </si>
+  <si>
+    <t>对……的痴迷</t>
+  </si>
+  <si>
+    <r>
+      <t>hygiene</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0B78FE"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleanliness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>unhealthy</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0B78FE"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>more powerful than previously imagined</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>underestimated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低估</t>
+  </si>
+  <si>
+    <t>not be the same as our own</t>
+  </si>
+  <si>
+    <t>different attitudes and beliefs</t>
+  </si>
+  <si>
+    <t>humility</t>
+  </si>
+  <si>
+    <t>modesty</t>
+  </si>
+  <si>
+    <t>谦虚</t>
+  </si>
+  <si>
+    <t>intellectual </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0B78FE"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>智力的，脑力的</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>students were instructed</t>
+  </si>
+  <si>
+    <t>could not choose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1559,6 +1840,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1580,7 +1868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1609,6 +1897,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1889,10 +2178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D153"/>
+  <dimension ref="A1:D185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3226,6 +3515,267 @@
         <v>339</v>
       </c>
     </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>341</v>
+      </c>
+      <c r="B156" t="s">
+        <v>342</v>
+      </c>
+      <c r="C156" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="D156" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>344</v>
+      </c>
+      <c r="B157" t="s">
+        <v>343</v>
+      </c>
+      <c r="C157" t="s">
+        <v>349</v>
+      </c>
+      <c r="D157" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A158" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="B158" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="C158" t="s">
+        <v>351</v>
+      </c>
+      <c r="D158" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A159" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="B159" s="15" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A160" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B160" s="15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A162" s="15" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A163" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="B163" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="C163" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="D163" s="15" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A164" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="B164" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="C164" t="s">
+        <v>366</v>
+      </c>
+      <c r="D164" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A165" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="B165" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="C165" t="s">
+        <v>369</v>
+      </c>
+      <c r="D165" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A166" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="B166" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A167" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="B167" t="s">
+        <v>373</v>
+      </c>
+      <c r="C167" t="e">
+        <f>+B167DA166:C167</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A168" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="B168" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A170" s="15" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A171" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="B171" s="15" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A172" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="B172" s="15" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A173" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="B173" s="15" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A175" s="15" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A176" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="B176" s="15" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A177" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="B177" s="15" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A178" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B178" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A179" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="B179" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A180" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="B180" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A181" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="B181" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A182" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="B182" s="15" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A183" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="B183" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="C183" s="26" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A184" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="B184" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A185" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="B185" s="15" t="s">
+        <v>406</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reading/同义词表.xlsx
+++ b/reading/同义词表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\reading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902CD594-7D76-4BFE-9CE5-E2C0F20BCAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E004503-2994-49BA-B4A9-2AFE029DDC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="2316" windowWidth="10800" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4596" yWindow="2256" windowWidth="11172" windowHeight="8856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="522">
   <si>
     <t> say</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1665,6 +1665,446 @@
   <si>
     <t>could not choose</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C17-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depend on</t>
+  </si>
+  <si>
+    <t>rely on</t>
+  </si>
+  <si>
+    <t>young</t>
+  </si>
+  <si>
+    <t>newborns</t>
+  </si>
+  <si>
+    <r>
+      <t>inside</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0B78FE"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>into</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impractical.</t>
+  </si>
+  <si>
+    <t>不现实的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stays </t>
+  </si>
+  <si>
+    <t>remains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not refrigerated</t>
+  </si>
+  <si>
+    <t>at room temperature</t>
+  </si>
+  <si>
+    <t>most famously </t>
+  </si>
+  <si>
+    <t> best known</t>
+  </si>
+  <si>
+    <t>dig down</t>
+  </si>
+  <si>
+    <t>deep excavations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贫民窟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C16-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> the same time.</t>
+  </si>
+  <si>
+    <t> keep time</t>
+  </si>
+  <si>
+    <r>
+      <t>be played</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0B78FE"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>was used</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> threat to achieving this</t>
+  </si>
+  <si>
+    <t> could be missed</t>
+  </si>
+  <si>
+    <t>however,</t>
+  </si>
+  <si>
+    <t> same speed</t>
+  </si>
+  <si>
+    <t> applied aspects</t>
+  </si>
+  <si>
+    <t>use of the research</t>
+  </si>
+  <si>
+    <t>scientific support for a traditional saying</t>
+  </si>
+  <si>
+    <t>the science behind a well-known rhyme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C16-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at the end</t>
+  </si>
+  <si>
+    <t>hung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inscription</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>equally</t>
+  </si>
+  <si>
+    <t>not  than others.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empathy</t>
+  </si>
+  <si>
+    <t>同理心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thorough</t>
+  </si>
+  <si>
+    <t>全面的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emotional content</t>
+  </si>
+  <si>
+    <t>feelings</t>
+  </si>
+  <si>
+    <t>C17-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>versatile</t>
+  </si>
+  <si>
+    <t>多才多艺的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the flexibility was lost</t>
+  </si>
+  <si>
+    <t>less versatile</t>
+  </si>
+  <si>
+    <t>disuse and disrepair</t>
+  </si>
+  <si>
+    <t>negative attitudes</t>
+  </si>
+  <si>
+    <t>range of facilities</t>
+  </si>
+  <si>
+    <t>hotels, retail outlets, conference centres,</t>
+  </si>
+  <si>
+    <t>did a deal</t>
+  </si>
+  <si>
+    <t>formed an alliance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alliance</t>
+  </si>
+  <si>
+    <t>联盟</t>
+  </si>
+  <si>
+    <t>he abandoned an important</t>
+  </si>
+  <si>
+    <t>very principles his father had died</t>
+  </si>
+  <si>
+    <t>principle</t>
+  </si>
+  <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t>conviction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确信；信念</t>
+  </si>
+  <si>
+    <t> refuge</t>
+  </si>
+  <si>
+    <t>safety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战争失败后才开始考虑自救的</t>
+  </si>
+  <si>
+    <t> before the battle.</t>
+  </si>
+  <si>
+    <r>
+      <t>account</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0B78FE"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>narrative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叙述</t>
+  </si>
+  <si>
+    <t>must have affected him in some way</t>
+  </si>
+  <si>
+    <t>d a lasting influence on him.</t>
+  </si>
+  <si>
+    <t>C17-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>majority </t>
+  </si>
+  <si>
+    <t>mainly</t>
+  </si>
+  <si>
+    <t>debate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">not  agreement </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fragments</t>
+  </si>
+  <si>
+    <t>incomplete</t>
+  </si>
+  <si>
+    <t>undesirable</t>
+  </si>
+  <si>
+    <t>less desirable</t>
+  </si>
+  <si>
+    <t>unusual plants</t>
+  </si>
+  <si>
+    <t>obscure plants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obscure</t>
+  </si>
+  <si>
+    <t>鲜为人知的</t>
+  </si>
+  <si>
+    <t>notion </t>
+  </si>
+  <si>
+    <t>理念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tune away</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抛弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conventional</t>
+  </si>
+  <si>
+    <t>traditional</t>
+  </si>
+  <si>
+    <t>传统的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spontaneously pop into</t>
+  </si>
+  <si>
+    <t>sudden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自发性弹出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> happy accident.</t>
+  </si>
+  <si>
+    <t>pure serendipity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意外新发现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C17-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8/9</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0B78FE"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>是两个填具体的东西，因为有比列</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mosquitoes and blackflies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>which infests coffee plants)</t>
+  </si>
+  <si>
+    <t>ate pests of  coffee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undermined their monopolies</t>
+  </si>
+  <si>
+    <t>破坏垄断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">opposed control </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>consistent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paying attention to</t>
+  </si>
+  <si>
+    <t>listening to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instead of </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>while</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>most important part</t>
+  </si>
+  <si>
+    <t>priorities</t>
   </si>
 </sst>
 </file>
@@ -2178,10 +2618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D185"/>
+  <dimension ref="A1:D242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="B181" sqref="B181"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3776,6 +4216,453 @@
         <v>406</v>
       </c>
     </row>
+    <row r="187" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A187" s="15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A188" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="B188" s="15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A189" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="B189" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A190" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="B190" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A191" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="B191" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A192" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="B192" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A193" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="B193" s="18" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A194" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="B194" s="21" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A195" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="B195" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>424</v>
+      </c>
+      <c r="B196" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A198" s="15" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A199" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="B199" s="18" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A200" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="B200" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A201" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="B201" s="19" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A202" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="B202" s="19" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A203" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="B203" s="21" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A204" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="B204" s="15" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A206" s="18" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A207" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="B207" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A208" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="B208" s="15" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A209" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="B209" t="s">
+        <v>445</v>
+      </c>
+      <c r="C209" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="D209" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A210" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="B210" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="C210" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="D210" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A212" s="15" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A213" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C213" t="s">
+        <v>453</v>
+      </c>
+      <c r="D213" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A214" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="B214" s="15" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A215" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="B215" s="18" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A216" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="B216" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="C216" t="s">
+        <v>463</v>
+      </c>
+      <c r="D216" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A217" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="B217" s="15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A218" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="B218" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="C218" t="s">
+        <v>469</v>
+      </c>
+      <c r="D218" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A219" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="B219" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A220" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="B220" s="19" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A221" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="B221" t="s">
+        <v>476</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A222" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A225" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="B225" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="C225" t="s">
+        <v>491</v>
+      </c>
+      <c r="D225" s="7" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A226" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="B226" t="s">
+        <v>484</v>
+      </c>
+      <c r="C226" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="D226" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A227" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="B227" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="C227" t="s">
+        <v>495</v>
+      </c>
+      <c r="D227" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A228" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="B228" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A229" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="B229" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A230" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="B230" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="C230" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A231" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="B231" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="C231" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A232" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="B232" t="s">
+        <v>504</v>
+      </c>
+      <c r="C232" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A234" s="15" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A235" s="15" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A236" s="15" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A237" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="B237" s="21" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A238" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C238" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A239" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="B239" s="15" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A240" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="B240" s="15" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A241" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="B241" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A242" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="B242" s="21" t="s">
+        <v>521</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reading/同义词表.xlsx
+++ b/reading/同义词表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\reading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E004503-2994-49BA-B4A9-2AFE029DDC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F0DE97-11E6-4B6A-976A-7B7BF4DC634A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4596" yWindow="2256" windowWidth="11172" windowHeight="8856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11832" yWindow="1884" windowWidth="10476" windowHeight="8856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="546">
   <si>
     <t> say</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2106,12 +2106,93 @@
   <si>
     <t>priorities</t>
   </si>
+  <si>
+    <t>C11-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canal </t>
+  </si>
+  <si>
+    <t>运河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the first time</t>
+  </si>
+  <si>
+    <t>not two canals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manufactured</t>
+  </si>
+  <si>
+    <t> constructed</t>
+  </si>
+  <si>
+    <t>assembled</t>
+  </si>
+  <si>
+    <t>put together</t>
+  </si>
+  <si>
+    <t>immense </t>
+  </si>
+  <si>
+    <t>took into account</t>
+  </si>
+  <si>
+    <t>考虑到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beneath</t>
+  </si>
+  <si>
+    <t>在什么之下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>under</t>
+  </si>
+  <si>
+    <t>taken out</t>
+  </si>
+  <si>
+    <t>remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clamp</t>
+  </si>
+  <si>
+    <t>钳子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大的，广大的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manipulation </t>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historic volcanic explosions</t>
+  </si>
+  <si>
+    <t>earlier natural phenomenon</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2287,6 +2368,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FF0B78FE"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2308,7 +2396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2338,6 +2426,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2618,10 +2707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D242"/>
+  <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="B242" sqref="B242"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="B250" sqref="B250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4647,7 +4736,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A241" s="15" t="s">
         <v>518</v>
       </c>
@@ -4655,12 +4744,98 @@
         <v>519</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A242" s="21" t="s">
         <v>520</v>
       </c>
       <c r="B242" s="21" t="s">
         <v>521</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A244" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="C244" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="D244" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A245" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="B245" t="s">
+        <v>526</v>
+      </c>
+      <c r="C245" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="D245" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A246" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="B246" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="C246" t="s">
+        <v>532</v>
+      </c>
+      <c r="D246" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A247" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="B247" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="C247" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="D247" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A248" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="B248" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="C248" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A249" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="B249" t="s">
+        <v>538</v>
+      </c>
+      <c r="C249" s="27" t="s">
+        <v>539</v>
+      </c>
+      <c r="D249" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A250" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="B250" s="21" t="s">
+        <v>545</v>
       </c>
     </row>
   </sheetData>

--- a/reading/同义词表.xlsx
+++ b/reading/同义词表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\reading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F0DE97-11E6-4B6A-976A-7B7BF4DC634A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08CA544-2FA3-4946-87D5-1F6011CAC09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11832" yWindow="1884" windowWidth="10476" windowHeight="8856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9288" yWindow="1080" windowWidth="10476" windowHeight="8856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="579">
   <si>
     <t> say</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2187,12 +2187,169 @@
   <si>
     <t>earlier natural phenomenon</t>
   </si>
+  <si>
+    <t>C11-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>two factors</t>
+  </si>
+  <si>
+    <t>nature and nurture</t>
+  </si>
+  <si>
+    <t>invented a term</t>
+  </si>
+  <si>
+    <t>coined the phrase</t>
+  </si>
+  <si>
+    <t>coin锻造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distilled</t>
+  </si>
+  <si>
+    <t>did justice</t>
+  </si>
+  <si>
+    <t>essence</t>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>sophistication</t>
+  </si>
+  <si>
+    <t>复杂的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complex</t>
+  </si>
+  <si>
+    <t>taken for granted</t>
+  </si>
+  <si>
+    <t>理所当然</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">overlooked </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0B78FE"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（忽略）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appears</t>
+  </si>
+  <si>
+    <t>deceptive</t>
+  </si>
+  <si>
+    <t>paradox</t>
+  </si>
+  <si>
+    <t>incompatible</t>
+  </si>
+  <si>
+    <t>驳论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extraordinary</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0B78FE"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>非凡的</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> banal</t>
+  </si>
+  <si>
+    <t>dull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无聊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emphasise</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">underscores </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3377FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（强调）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreshadows </t>
+  </si>
+  <si>
+    <t>anticipate </t>
+  </si>
+  <si>
+    <t>预示，预言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>subconscious </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3377FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（微妙，意识不到）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no aware </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2374,6 +2531,13 @@
       <color rgb="FF0B78FE"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3377FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2707,10 +2871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D250"/>
+  <dimension ref="A1:D265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="B250" sqref="B250"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="B265" sqref="B265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4838,6 +5002,133 @@
         <v>545</v>
       </c>
     </row>
+    <row r="252" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A252" s="15" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A253" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="B253" s="15" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A254" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="B254" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="C254" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A255" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="B255" s="15" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A256" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="B256" s="15" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A257" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="B257" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="C257" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A258" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="B258" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A259" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="B259" s="15" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A260" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="B260" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="C260" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A261" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="B261" s="15" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A262" s="18" t="s">
+        <v>569</v>
+      </c>
+      <c r="B262" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="C262" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A263" s="18" t="s">
+        <v>573</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A264" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="B264" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="C264" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A265" s="18" t="s">
+        <v>577</v>
+      </c>
+      <c r="B265" s="19" t="s">
+        <v>578</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reading/同义词表.xlsx
+++ b/reading/同义词表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\reading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08CA544-2FA3-4946-87D5-1F6011CAC09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E72C8E-C0CD-4023-88D5-03F220DC758D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9288" yWindow="1080" windowWidth="10476" windowHeight="8856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3132" yWindow="336" windowWidth="11124" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="607">
   <si>
     <t> say</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2342,6 +2342,108 @@
   </si>
   <si>
     <t>no aware </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C19-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> was better</t>
+  </si>
+  <si>
+    <t> were of a higher </t>
+  </si>
+  <si>
+    <t>expansion </t>
+  </si>
+  <si>
+    <t>growth </t>
+  </si>
+  <si>
+    <t>是否有更多的货物被运输则未被提及</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>more</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>difficulty  breathing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appeal</t>
+  </si>
+  <si>
+    <t>吸引力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>intrigued</t>
+  </si>
+  <si>
+    <t>be hooked</t>
+  </si>
+  <si>
+    <t>好奇的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an inquiring mind</t>
+  </si>
+  <si>
+    <t>curious</t>
+  </si>
+  <si>
+    <t>resolute</t>
+  </si>
+  <si>
+    <t>determined</t>
+  </si>
+  <si>
+    <t>鉴定的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enjoyment</t>
+  </si>
+  <si>
+    <t>satisfaction</t>
+  </si>
+  <si>
+    <t>unexceptional </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0B78FE"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>普通的</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> right attitudes and approaches</t>
+  </si>
+  <si>
+    <t>a spirit of inquiry towards </t>
+  </si>
+  <si>
+    <t>innate </t>
+  </si>
+  <si>
+    <t>先天的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2871,10 +2973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D265"/>
+  <dimension ref="A1:D279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="B265" sqref="B265"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5129,6 +5231,116 @@
         <v>578</v>
       </c>
     </row>
+    <row r="267" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A267" s="18" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A268" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="B268" s="21" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A269" s="18" t="s">
+        <v>582</v>
+      </c>
+      <c r="B269" s="21" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="B270" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="20" t="s">
+        <v>587</v>
+      </c>
+      <c r="B271" s="25" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A272" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="B272" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="C272" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A273" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="B273" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="C273" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A274" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="B274" s="15" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A275" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="B275" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="C275" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A276" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="B276" s="23" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A277" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="B277" s="15" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A278" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="B279" s="21" t="s">
+        <v>605</v>
+      </c>
+      <c r="C279" t="s">
+        <v>606</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
